--- a/biology/Zoologie/Acutotyphlops_banaorum/Acutotyphlops_banaorum.xlsx
+++ b/biology/Zoologie/Acutotyphlops_banaorum/Acutotyphlops_banaorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acutotyphlops banaorum est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acutotyphlops banaorum est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Kalinga sur l'île de Luçon aux Philippines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Kalinga sur l'île de Luçon aux Philippines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le paratype[2] de Acutotyphlops banaorum[3], un mâle adulte, mesure 333 mm dont 13,3 mm pour la queue. Cette espèce présente une tête noire, un dos brun orangé brillant avec des taches noires irrégulières, et une face ventrale brun orangé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le paratype de Acutotyphlops banaorum, un mâle adulte, mesure 333 mm dont 13,3 mm pour la queue. Cette espèce présente une tête noire, un dos brun orangé brillant avec des taches noires irrégulières, et une face ventrale brun orangé.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur des tribus Banao originaires de la cordillère Centrale.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wallach, Brown, Diesmos &amp; Gee, 2007 : An Enigmatic New Species of Blind Snake from Luzon Island, Northern Philippines, with A Synopsis of The Genus Acutotyphlops (Serpentes: Typhlopidae). Journal of Herpetology, vol. 41, no 4, p. 690-702 (texte intégral).</t>
         </is>
